--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3358.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3358.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.226215160854325</v>
+        <v>0.8166584968566895</v>
       </c>
       <c r="B1">
-        <v>2.688488145843877</v>
+        <v>3.022672653198242</v>
       </c>
       <c r="C1">
-        <v>6.044500694304911</v>
+        <v>3.02791166305542</v>
       </c>
       <c r="D1">
-        <v>2.16358716704602</v>
+        <v>2.568146228790283</v>
       </c>
       <c r="E1">
-        <v>1.16322558817728</v>
+        <v>2.185593843460083</v>
       </c>
     </row>
   </sheetData>
